--- a/Exoplanets/WASP74b/Parâmetros.xlsx
+++ b/Exoplanets/WASP74b/Parâmetros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5292F23-26DA-4E71-AD40-5BBD7F2B4D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3330BA-680B-47A5-BF0D-B94A56BF5528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -435,10 +435,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,7 +766,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,8 +877,8 @@
       <c r="E2" s="8">
         <v>2050</v>
       </c>
-      <c r="F2" s="25">
-        <v>1.56</v>
+      <c r="F2" s="24">
+        <v>1.42</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -896,20 +896,20 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <f>SQRT(0.08)</f>
-        <v>0.28284271247461901</v>
+        <f>SQRT(0.04)</f>
+        <v>0.2</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>3.4000000000000002E-2</v>
+        <v>3.705E-2</v>
       </c>
       <c r="O2" s="20">
         <v>0.98</v>
       </c>
       <c r="P2" s="20">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" s="20">
         <v>0.72</v>
@@ -917,8 +917,8 @@
       <c r="R2" s="20">
         <v>2.13775</v>
       </c>
-      <c r="S2" s="24">
-        <v>89.999899999999997</v>
+      <c r="S2" s="25">
+        <v>79.81</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
